--- a/project/《优图南》用户故事.xlsx
+++ b/project/《优图南》用户故事.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E2BB60-BBB3-4B75-89F5-495BF8D63229}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD06D0B-4593-46D2-ADE9-3438D434C78F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Backlog" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t>PROJECT BACKLOG</t>
   </si>
@@ -176,11 +176,91 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>Task</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个决定考研的学生，我希望能查询各个学校的考试科目，以便于我选择出最适合自己能力的学校。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐溪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王云弟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索页面UI设计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索页面UI实现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王碧云</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端页面和后端代码之间数据的传送</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙程程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Not started</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Task</t>
+    <t>页面的分页功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张正扬</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>闫正伟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬虫搜索全部学校的考试科目</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>In progress</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现对各个学校按不同要求的检索功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个正在确定考研目标学校的学生，我希望能收藏心仪的学校，以便于我在收藏夹方便地浏览、比较它们。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现收藏功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏功能的UI设计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏功能的UI实现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏功能与分页之间的衔接</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心收藏夹的展示</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -292,34 +372,43 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -605,226 +694,226 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="4"/>
-    <col min="5" max="5" width="17.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="34.2109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.35546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="4"/>
-    <col min="9" max="9" width="21.92578125" style="4" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="4"/>
-    <col min="12" max="12" width="16.2109375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" style="4" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="4" width="9.125" style="3"/>
+    <col min="5" max="5" width="17.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="34.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="3"/>
+    <col min="9" max="9" width="21.875" style="3" customWidth="1"/>
+    <col min="10" max="11" width="9.125" style="3"/>
+    <col min="12" max="12" width="16.25" style="3" customWidth="1"/>
+    <col min="13" max="13" width="19.625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" s="6" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+    <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>3</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>100</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="54.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="4">
+    <row r="4" spans="1:17" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>2</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>65</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="58.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="4">
+    <row r="5" spans="1:17" ht="58.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>1</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>40</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="76.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="4">
+    <row r="6" spans="1:17" ht="76.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>4</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>75</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="3">
         <v>4</v>
       </c>
     </row>
@@ -840,70 +929,194 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3802A4C1-F1E1-491B-8ED2-030ACE49D718}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="57.375" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
       <c r="E2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
       <c r="E3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>2</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C12" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/project/《优图南》用户故事.xlsx
+++ b/project/《优图南》用户故事.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD06D0B-4593-46D2-ADE9-3438D434C78F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Project Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="sprint1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
   <si>
     <t>PROJECT BACKLOG</t>
   </si>
@@ -97,177 +96,188 @@
     <t>user story</t>
   </si>
   <si>
+    <t>Initial Feature</t>
+  </si>
+  <si>
+    <t>备录编号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺备录项</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>责任人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>底线</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>In progress</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Task</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个决定考研的学生，我希望能查询各个学校的考试科目，以便于我选择出最适合自己能力的学校。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐溪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王云弟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索页面UI设计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索页面UI实现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王碧云</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端页面和后端代码之间数据的传送</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙程程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not started</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面的分页功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张正扬</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>闫正伟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬虫搜索全部学校的考试科目</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>In progress</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现对各个学校按不同要求的检索功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个正在确定考研目标学校的学生，我希望能收藏心仪的学校，以便于我在收藏夹方便地浏览、比较它们。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现收藏功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏功能的UI设计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏功能的UI实现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏功能与分页之间的衔接</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心收藏夹的展示</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>院校考试信息查询</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initial Feature</t>
-  </si>
-  <si>
-    <t>Initial Feature</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个决定考研的学生，我希望能查询各个学校的考试科目，以便于我选择出最适合自己能力的学校。</t>
+  </si>
+  <si>
+    <t>Not Done</t>
   </si>
   <si>
     <t>院校收藏夹</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个正在确定考研目标学校的学生，我希望能收藏心仪的学校，以便于我在收藏夹方便地浏览、比较它们。</t>
   </si>
   <si>
     <t>考研倒计时</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一个决定考研的学生，我希望能查询各个学校的考试科目，以便于我选择出最适合自己能力的学校。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一个正在确定考研目标学校的学生，我希望能收藏心仪的学校，以便于我在收藏夹方便地浏览、比较它们。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>作为一个决定考研的学生，我希望能清楚地知道考研有多少天，以便于警醒我，不松懈，合理安排时间。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>发表提问</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>作为一个备考中的考研学生，我希望能有一个平台，让我可以提问有疑惑的题目，以便于得到其他网友回答，帮助我更好地掌握知识。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not Done</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>备录编号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲刺备录项</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>责任人</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>剩余</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>底线</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>In progress</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Task</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一个决定考研的学生，我希望能查询各个学校的考试科目，以便于我选择出最适合自己能力的学校。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐溪</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>王云弟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索页面UI设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索页面UI实现</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>王碧云</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端页面和后端代码之间数据的传送</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙程程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Not started</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面的分页功能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>张正扬</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>闫正伟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>爬虫搜索全部学校的考试科目</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>In progress</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现对各个学校按不同要求的检索功能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一个正在确定考研目标学校的学生，我希望能收藏心仪的学校，以便于我在收藏夹方便地浏览、比较它们。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现收藏功能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏功能的UI设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏功能的UI实现</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>收藏功能与分页之间的衔接</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人中心收藏夹的展示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载考研资源</t>
+  </si>
+  <si>
+    <t>作为一个备考中的考研学生，我希望能有一个平台，让我能够找到并且下载考研相关资料，帮我更好的实现高效备考。</t>
+  </si>
+  <si>
+    <t>寻找研友</t>
+  </si>
+  <si>
+    <t>最为一个备考中的考研学生，我希望可以找到一个跟我一起备考的研友，每天相互监督，相互帮助，相互鼓励，与我一同度过艰难的考研阶段。</t>
+  </si>
+  <si>
+    <t>上传文件</t>
+  </si>
+  <si>
+    <t>作为一个备考中的考研学生，我希望可以通过一个平台，将我的资源与大家进行共享，实现共同进步。</t>
+  </si>
+  <si>
+    <t>回答问题</t>
+  </si>
+  <si>
+    <t>作为一个考研完毕的学生，我希望可以通过回答学弟学妹的问题，对学弟学妹的考研提供一些我的考研经验，以及我对考研的看法，帮助他们更好的择校以及学习。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -398,9 +408,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -410,10 +417,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="60% - 着色 5" xfId="1" builtinId="48"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{71C23A0F-8CAC-44E7-B773-0795FD47FD14}"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="1" builtinId="48"/>
+    <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -684,48 +694,48 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="9.125" style="3"/>
-    <col min="5" max="5" width="17.875" style="3" customWidth="1"/>
+    <col min="1" max="4" width="9.08203125" style="3"/>
+    <col min="5" max="5" width="17.83203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="34.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="3"/>
-    <col min="9" max="9" width="21.875" style="3" customWidth="1"/>
-    <col min="10" max="11" width="9.125" style="3"/>
+    <col min="7" max="7" width="15.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.08203125" style="3"/>
+    <col min="9" max="9" width="21.83203125" style="3" customWidth="1"/>
+    <col min="10" max="11" width="9.08203125" style="3"/>
     <col min="12" max="12" width="16.25" style="3" customWidth="1"/>
-    <col min="13" max="13" width="19.625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="3"/>
+    <col min="13" max="13" width="19.58203125" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.08203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -733,7 +743,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -786,7 +796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -800,16 +810,16 @@
         <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="I3" s="3">
         <v>3</v>
@@ -821,9 +831,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="54.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -832,16 +845,16 @@
         <v>18</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="I4" s="3">
         <v>2</v>
@@ -853,27 +866,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="58.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="58.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
       <c r="B5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -885,9 +901,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="76.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="76.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
       <c r="B6" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -896,16 +915,16 @@
         <v>18</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="I6" s="3">
         <v>4</v>
@@ -917,6 +936,135 @@
         <v>4</v>
       </c>
     </row>
+    <row r="7" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2</v>
+      </c>
+      <c r="J9" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="3">
+        <v>2</v>
+      </c>
+      <c r="J10" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
@@ -928,190 +1076,190 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3802A4C1-F1E1-491B-8ED2-030ACE49D718}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="57.375" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C3" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C5" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="E7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>57</v>
+      <c r="B8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
         <v>41</v>
       </c>
-      <c r="E8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C11" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C12" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C13" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/project/《优图南》用户故事.xlsx
+++ b/project/《优图南》用户故事.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C4DC1C-270B-4241-ACF6-E86B9E48C2C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="11025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Backlog" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="95">
   <si>
     <t>PROJECT BACKLOG</t>
   </si>
@@ -272,12 +273,120 @@
   </si>
   <si>
     <t>作为一个考研完毕的学生，我希望可以通过回答学弟学妹的问题，对学弟学妹的考研提供一些我的考研经验，以及我对考研的看法，帮助他们更好的择校以及学习。</t>
+  </si>
+  <si>
+    <t>作为一个备考中的考研学生，我希望可以通过一个平台，将我的资源与大家进行共享，实现共同进步。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传功能UI设计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐溪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传功能UI实现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端和后端之间的数据传递</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张正扬</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现文件上传功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>In progress</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储上传文件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>闫正伟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享资源数据库设计实现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙程程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享资源首页UI设计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享资源首页UI实现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王云弟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现文件下载功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现文件的评论</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王碧云</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个备考中的考研学生，我希望能有一个平台，让我可以提问有疑惑的题目，以便于得到其他网友回答，帮助我更好地掌握知识。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提问首页UI设计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试资源上传下载功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>史素佳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提问首页UI实现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提问数据库设计实现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提问选择标签功能设计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提问验证码功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,9 +511,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -420,10 +526,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="60% - 强调文字颜色 5" xfId="1" builtinId="48"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="60% - 着色 5" xfId="1" builtinId="48"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -694,48 +803,48 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="9.08203125" style="3"/>
-    <col min="5" max="5" width="17.83203125" style="3" customWidth="1"/>
+    <col min="1" max="4" width="9.125" style="3"/>
+    <col min="5" max="5" width="17.875" style="3" customWidth="1"/>
     <col min="6" max="6" width="34.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.08203125" style="3"/>
-    <col min="9" max="9" width="21.83203125" style="3" customWidth="1"/>
-    <col min="10" max="11" width="9.08203125" style="3"/>
+    <col min="7" max="7" width="15.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="3"/>
+    <col min="9" max="9" width="21.875" style="3" customWidth="1"/>
+    <col min="10" max="11" width="9.125" style="3"/>
     <col min="12" max="12" width="16.25" style="3" customWidth="1"/>
-    <col min="13" max="13" width="19.58203125" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.08203125" style="3"/>
+    <col min="13" max="13" width="19.625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -743,7 +852,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -796,7 +905,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -831,7 +940,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="54.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -866,7 +975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="58.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="58.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -901,7 +1010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="76.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="76.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -918,7 +1027,7 @@
         <v>58</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>19</v>
@@ -936,7 +1045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -968,7 +1077,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1000,7 +1109,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="56.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1017,7 +1126,7 @@
         <v>64</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>19</v>
@@ -1032,7 +1141,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1064,7 +1173,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
@@ -1076,28 +1185,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="57.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+    <col min="2" max="2" width="57.375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="10" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -1106,24 +1215,24 @@
       <c r="E1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D2" t="s">
@@ -1133,8 +1242,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C3" s="11" t="s">
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C3" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D3" t="s">
@@ -1144,8 +1253,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C4" s="11" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C4" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D4" t="s">
@@ -1155,8 +1264,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C5" s="11" t="s">
+    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C5" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D5" t="s">
@@ -1166,8 +1275,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C6" s="11" t="s">
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C6" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D6" t="s">
@@ -1177,8 +1286,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="11" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D7" t="s">
@@ -1188,14 +1297,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>47</v>
       </c>
       <c r="D8" t="s">
@@ -1205,9 +1314,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C9" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D9" t="s">
@@ -1217,9 +1325,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C10" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D10" t="s">
@@ -1229,8 +1336,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C11" s="11" t="s">
+    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C11" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D11" t="s">
@@ -1240,8 +1347,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C12" s="11" t="s">
+    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C12" s="10" t="s">
         <v>49</v>
       </c>
       <c r="D12" t="s">
@@ -1251,8 +1358,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="28" x14ac:dyDescent="0.3">
-      <c r="C13" s="11" t="s">
+    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C13" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D13" t="s">
@@ -1260,6 +1367,205 @@
       </c>
       <c r="E13" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C19" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C21" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C22" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C23" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C27" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C29" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C30" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/project/《优图南》用户故事.xlsx
+++ b/project/《优图南》用户故事.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C4DC1C-270B-4241-ACF6-E86B9E48C2C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="11025" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project Backlog" sheetId="1" r:id="rId1"/>
@@ -257,12 +256,6 @@
     <t>作为一个备考中的考研学生，我希望能有一个平台，让我能够找到并且下载考研相关资料，帮我更好的实现高效备考。</t>
   </si>
   <si>
-    <t>寻找研友</t>
-  </si>
-  <si>
-    <t>最为一个备考中的考研学生，我希望可以找到一个跟我一起备考的研友，每天相互监督，相互帮助，相互鼓励，与我一同度过艰难的考研阶段。</t>
-  </si>
-  <si>
     <t>上传文件</t>
   </si>
   <si>
@@ -380,13 +373,21 @@
   </si>
   <si>
     <t>提问验证码功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料收藏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最为一个备考中的考研学生，我希望我可以在看到对我有帮助的资料，但是没有积分下载的时候，我可以进行收藏，并且在资料收藏夹中可以看到，方便我下次直接进行下载。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -523,16 +524,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="60% - 着色 5" xfId="1" builtinId="48"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="1" builtinId="48"/>
+    <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -803,48 +804,48 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="9.125" style="3"/>
-    <col min="5" max="5" width="17.875" style="3" customWidth="1"/>
+    <col min="1" max="4" width="9.08203125" style="3"/>
+    <col min="5" max="5" width="17.83203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="34.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="3"/>
-    <col min="9" max="9" width="21.875" style="3" customWidth="1"/>
-    <col min="10" max="11" width="9.125" style="3"/>
+    <col min="7" max="7" width="15.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.08203125" style="3"/>
+    <col min="9" max="9" width="21.83203125" style="3" customWidth="1"/>
+    <col min="10" max="11" width="9.08203125" style="3"/>
     <col min="12" max="12" width="16.25" style="3" customWidth="1"/>
-    <col min="13" max="13" width="19.625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="3"/>
+    <col min="13" max="13" width="19.58203125" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.08203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -852,7 +853,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -905,7 +906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -940,7 +941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="54.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -975,7 +976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="58.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="58.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1010,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="76.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="76.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>58</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>19</v>
@@ -1045,7 +1046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1077,7 +1078,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="74" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1091,10 +1092,10 @@
         <v>18</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>19</v>
@@ -1109,7 +1110,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="56.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1123,10 +1124,10 @@
         <v>18</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>19</v>
@@ -1141,7 +1142,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1155,10 +1156,10 @@
         <v>18</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>19</v>
@@ -1173,7 +1174,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
@@ -1185,25 +1186,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="57.375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="10" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -1225,7 +1226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1242,7 +1243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C3" s="10" t="s">
         <v>42</v>
       </c>
@@ -1253,7 +1254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="10" t="s">
         <v>34</v>
       </c>
@@ -1264,7 +1265,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
         <v>44</v>
       </c>
@@ -1275,7 +1276,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C6" s="10" t="s">
         <v>36</v>
       </c>
@@ -1286,7 +1287,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C7" s="10" t="s">
         <v>39</v>
       </c>
@@ -1297,7 +1298,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1314,7 +1315,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" s="10" t="s">
         <v>48</v>
       </c>
@@ -1325,7 +1326,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10" s="10" t="s">
         <v>46</v>
       </c>
@@ -1336,7 +1337,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C11" s="10" t="s">
         <v>36</v>
       </c>
@@ -1347,7 +1348,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C12" s="10" t="s">
         <v>49</v>
       </c>
@@ -1358,7 +1359,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="C13" s="10" t="s">
         <v>50</v>
       </c>
@@ -1369,134 +1370,134 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
         <v>69</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="E14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C15" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
       </c>
       <c r="E15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="C16" s="10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C16" s="10" t="s">
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s">
         <v>74</v>
       </c>
-      <c r="E16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="10" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
         <v>74</v>
       </c>
-      <c r="E17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C18" s="10" t="s">
+    </row>
+    <row r="19" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="C19" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>78</v>
       </c>
-      <c r="E18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C19" s="10" t="s">
+      <c r="E19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="E19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C20" s="10" t="s">
+      <c r="D21" t="s">
         <v>81</v>
       </c>
-      <c r="D20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C21" s="10" t="s">
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C22" s="10" t="s">
+      <c r="D23" t="s">
         <v>84</v>
       </c>
-      <c r="D22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C23" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" t="s">
-        <v>86</v>
-      </c>
       <c r="E23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="C24" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1504,68 +1505,68 @@
         <v>59</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C26" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
         <v>32</v>
       </c>
       <c r="E26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="C27" s="10" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C27" s="10" t="s">
-        <v>73</v>
-      </c>
       <c r="D27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="C29" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" t="s">
         <v>74</v>
       </c>
-      <c r="E27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C28" s="10" t="s">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C30" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C29" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" t="s">
-        <v>78</v>
-      </c>
-      <c r="E29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C30" s="10" t="s">
-        <v>94</v>
-      </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/project/《优图南》用户故事.xlsx
+++ b/project/《优图南》用户故事.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299CE8B2-6DEF-41F1-A84E-363B0AC3FEE1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Backlog" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="105">
   <si>
     <t>PROJECT BACKLOG</t>
   </si>
@@ -381,13 +382,53 @@
   </si>
   <si>
     <t>最为一个备考中的考研学生，我希望我可以在看到对我有帮助的资料，但是没有积分下载的时候，我可以进行收藏，并且在资料收藏夹中可以看到，方便我下次直接进行下载。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user story</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表过的提问</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为优图南的用户，我希望可以在个人中心可以有一个栏目，记录自己发表过的提问，方便对这些内容进行管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>院校详情页</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个考研的学生，我希望在院校详情页可以有直达学校官网的入口和相关资料的一键搜索，以节约我搜罗信息的时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提问收藏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个考研的学生，我希望遇到对我有帮助的提问可以进行收藏，以便于我再有需要时可以在收藏夹方便的找到</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial Feature</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料审核</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为优图南的管理员，我希望可以在后台对用户上传的资料进行审核，避免网站出现侵权、违法或无效信息</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -532,8 +573,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="60% - 强调文字颜色 5" xfId="1" builtinId="48"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="60% - 着色 5" xfId="1" builtinId="48"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -804,35 +845,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="9.08203125" style="3"/>
-    <col min="5" max="5" width="17.83203125" style="3" customWidth="1"/>
+    <col min="1" max="4" width="9.125" style="3"/>
+    <col min="5" max="5" width="17.875" style="3" customWidth="1"/>
     <col min="6" max="6" width="34.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.08203125" style="3"/>
-    <col min="9" max="9" width="21.83203125" style="3" customWidth="1"/>
-    <col min="10" max="11" width="9.08203125" style="3"/>
+    <col min="7" max="7" width="15.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="3"/>
+    <col min="9" max="9" width="21.875" style="3" customWidth="1"/>
+    <col min="10" max="11" width="9.125" style="3"/>
     <col min="12" max="12" width="16.25" style="3" customWidth="1"/>
-    <col min="13" max="13" width="19.58203125" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.08203125" style="3"/>
+    <col min="13" max="13" width="19.625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -853,7 +894,7 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -906,7 +947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -941,7 +982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="54.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -976,7 +1017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="58.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="58.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1011,7 +1052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="76.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="76.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1046,7 +1087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1078,7 +1119,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="74" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1110,7 +1151,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="56.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="56.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1142,7 +1183,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1174,7 +1215,134 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2</v>
+      </c>
+      <c r="J11" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="57" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2</v>
+      </c>
+      <c r="J13" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
@@ -1186,21 +1354,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="57.33203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="57.375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="10" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
@@ -1226,7 +1394,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1243,7 +1411,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C3" s="10" t="s">
         <v>42</v>
       </c>
@@ -1254,7 +1422,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C4" s="10" t="s">
         <v>34</v>
       </c>
@@ -1265,7 +1433,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C5" s="10" t="s">
         <v>44</v>
       </c>
@@ -1276,7 +1444,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C6" s="10" t="s">
         <v>36</v>
       </c>
@@ -1287,7 +1455,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" s="10" t="s">
         <v>39</v>
       </c>
@@ -1298,7 +1466,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -1315,7 +1483,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C9" s="10" t="s">
         <v>48</v>
       </c>
@@ -1326,7 +1494,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C10" s="10" t="s">
         <v>46</v>
       </c>
@@ -1337,7 +1505,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C11" s="10" t="s">
         <v>36</v>
       </c>
@@ -1348,7 +1516,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C12" s="10" t="s">
         <v>49</v>
       </c>
@@ -1359,7 +1527,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C13" s="10" t="s">
         <v>50</v>
       </c>
@@ -1370,7 +1538,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1387,7 +1555,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" s="10" t="s">
         <v>70</v>
       </c>
@@ -1398,7 +1566,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C16" s="10" t="s">
         <v>71</v>
       </c>
@@ -1409,7 +1577,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C17" s="10" t="s">
         <v>73</v>
       </c>
@@ -1420,7 +1588,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C18" s="10" t="s">
         <v>75</v>
       </c>
@@ -1431,7 +1599,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C19" s="10" t="s">
         <v>77</v>
       </c>
@@ -1442,7 +1610,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C20" s="10" t="s">
         <v>79</v>
       </c>
@@ -1453,7 +1621,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C21" s="10" t="s">
         <v>80</v>
       </c>
@@ -1464,7 +1632,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C22" s="10" t="s">
         <v>82</v>
       </c>
@@ -1475,7 +1643,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C23" s="10" t="s">
         <v>83</v>
       </c>
@@ -1486,7 +1654,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C24" s="10" t="s">
         <v>87</v>
       </c>
@@ -1497,7 +1665,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1514,7 +1682,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C26" s="10" t="s">
         <v>89</v>
       </c>
@@ -1525,7 +1693,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C27" s="10" t="s">
         <v>71</v>
       </c>
@@ -1536,7 +1704,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C28" s="10" t="s">
         <v>90</v>
       </c>
@@ -1547,7 +1715,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C29" s="10" t="s">
         <v>91</v>
       </c>
@@ -1558,7 +1726,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C30" s="10" t="s">
         <v>92</v>
       </c>

--- a/project/《优图南》用户故事.xlsx
+++ b/project/《优图南》用户故事.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299CE8B2-6DEF-41F1-A84E-363B0AC3FEE1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AB35E6-ECDE-4A82-A001-B079523908ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19431" windowHeight="11031" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Backlog" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="117">
   <si>
     <t>PROJECT BACKLOG</t>
   </si>
@@ -66,34 +66,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>如何演示</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业价值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>理想时间（h）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>调整因子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>复杂度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息度</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>user story</t>
   </si>
   <si>
@@ -230,54 +206,237 @@
     <t>作为一个决定考研的学生，我希望能查询各个学校的考试科目，以便于我选择出最适合自己能力的学校。</t>
   </si>
   <si>
+    <t>院校收藏夹</t>
+  </si>
+  <si>
+    <t>作为一个正在确定考研目标学校的学生，我希望能收藏心仪的学校，以便于我在收藏夹方便地浏览、比较它们。</t>
+  </si>
+  <si>
+    <t>考研倒计时</t>
+  </si>
+  <si>
+    <t>作为一个决定考研的学生，我希望能清楚地知道考研有多少天，以便于警醒我，不松懈，合理安排时间。</t>
+  </si>
+  <si>
+    <t>发表提问</t>
+  </si>
+  <si>
+    <t>作为一个备考中的考研学生，我希望能有一个平台，让我可以提问有疑惑的题目，以便于得到其他网友回答，帮助我更好地掌握知识。</t>
+  </si>
+  <si>
+    <t>下载考研资源</t>
+  </si>
+  <si>
+    <t>上传文件</t>
+  </si>
+  <si>
+    <t>作为一个备考中的考研学生，我希望可以通过一个平台，将我的资源与大家进行共享，实现共同进步。</t>
+  </si>
+  <si>
+    <t>回答问题</t>
+  </si>
+  <si>
+    <t>上传功能UI设计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐溪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传功能UI实现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端和后端之间的数据传递</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张正扬</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现文件上传功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>In progress</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储上传文件</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>闫正伟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享资源数据库设计实现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙程程</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享资源首页UI设计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享资源首页UI实现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王云弟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现文件下载功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现文件的评论</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>王碧云</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个备考中的考研学生，我希望能有一个平台，让我可以提问有疑惑的题目，以便于得到其他网友回答，帮助我更好地掌握知识。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提问首页UI设计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试资源上传下载功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>史素佳</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提问首页UI实现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提问数据库设计实现</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提问选择标签功能设计</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提问验证码功能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料收藏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user story</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>发表过的提问</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提问收藏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个考研的学生，我希望遇到对我有帮助的提问可以进行收藏，以便于我再有需要时可以在收藏夹方便的找到</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial Feature</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料审核</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>user story</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题收藏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一名考研的学生,我希望可以将我曾经做错的题目或者我感觉有意义的题目收藏起来,以便我以后查看和复习</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial Feature</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Not Done</t>
-  </si>
-  <si>
-    <t>院校收藏夹</t>
-  </si>
-  <si>
-    <t>作为一个正在确定考研目标学校的学生，我希望能收藏心仪的学校，以便于我在收藏夹方便地浏览、比较它们。</t>
-  </si>
-  <si>
-    <t>考研倒计时</t>
-  </si>
-  <si>
-    <t>作为一个决定考研的学生，我希望能清楚地知道考研有多少天，以便于警醒我，不松懈，合理安排时间。</t>
-  </si>
-  <si>
-    <t>发表提问</t>
-  </si>
-  <si>
-    <t>作为一个备考中的考研学生，我希望能有一个平台，让我可以提问有疑惑的题目，以便于得到其他网友回答，帮助我更好地掌握知识。</t>
-  </si>
-  <si>
-    <t>下载考研资源</t>
-  </si>
-  <si>
-    <t>作为一个备考中的考研学生，我希望能有一个平台，让我能够找到并且下载考研相关资料，帮我更好的实现高效备考。</t>
-  </si>
-  <si>
-    <t>上传文件</t>
-  </si>
-  <si>
-    <t>作为一个备考中的考研学生，我希望可以通过一个平台，将我的资源与大家进行共享，实现共同进步。</t>
-  </si>
-  <si>
-    <t>回答问题</t>
-  </si>
-  <si>
-    <t>作为一个考研完毕的学生，我希望可以通过回答学弟学妹的问题，对学弟学妹的考研提供一些我的考研经验，以及我对考研的看法，帮助他们更好的择校以及学习。</t>
-  </si>
-  <si>
-    <t>作为一个备考中的考研学生，我希望可以通过一个平台，将我的资源与大家进行共享，实现共同进步。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传功能UI设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐溪</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统通知</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分商城</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为优图南的用户,我希望有一个平台,我可以将自己赚到积分用来兑换一些对我有实用价值的东西,以便于我节省金钱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户关注</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为优图南的用户,我希望可以关注我喜欢的用户,以便我可以查看到他最新的动态</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个准备考研的学生，我希望能在个人资料中展示我的目标学校，以便于我可以找到和我相同目标的研友。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置目标院校</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置所在院校</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个准备考研的学生，我希望能在个人资料中展示我的所在学校，以便于我可以找到可以一起奋斗的线下朋友。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>院校评论</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个正在确定考研目标学校的学生，我希望能了解其他人对该学校的评论，以便于我做出明智的选择</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源点赞/踩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个花费积分下载资源的用户，我希望能通过某种指标得知这个资源的价值如何，以便于我决定要不要花费积分去下载它</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -285,143 +444,35 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>上传功能UI实现</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>前端和后端之间的数据传递</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>张正扬</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现文件上传功能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>In progress</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储上传文件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>闫正伟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>共享资源数据库设计实现</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙程程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>共享资源首页UI设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>共享资源首页UI实现</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>王云弟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现文件下载功能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现文件的评论</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>王碧云</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一个备考中的考研学生，我希望能有一个平台，让我可以提问有疑惑的题目，以便于得到其他网友回答，帮助我更好地掌握知识。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>提问首页UI设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试资源上传下载功能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>史素佳</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>提问首页UI实现</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>提问数据库设计实现</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>提问选择标签功能设计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>提问验证码功能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>资料收藏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>最为一个备考中的考研学生，我希望我可以在看到对我有帮助的资料，但是没有积分下载的时候，我可以进行收藏，并且在资料收藏夹中可以看到，方便我下次直接进行下载。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>user story</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>发表过的提问</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为优图南的用户，我希望可以在个人中心可以有一个栏目，记录自己发表过的提问，方便对这些内容进行管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>院校详情页</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一个考研的学生，我希望在院校详情页可以有直达学校官网的入口和相关资料的一键搜索，以节约我搜罗信息的时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>提问收藏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为一个考研的学生，我希望遇到对我有帮助的提问可以进行收藏，以便于我再有需要时可以在收藏夹方便的找到</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Initial Feature</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>资料审核</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为优图南的管理员，我希望可以在后台对用户上传的资料进行审核，避免网站出现侵权、违法或无效信息</t>
+    <t>院校详情</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个备考中的考研学生，我希望能有一个平台，让我能够找到并且下载考研相关资料，以便于我更好的实现高效备考。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最为一个备考中的考研学生，我希望我可以在看到对我有帮助的资料，但是没有积分下载的时候，我可以进行收藏，并且在资料收藏夹中可以看到，以便于我下次直接进行下载。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个备考中的考研学生，我希望可以通过一个平台，将我的资源与大家进行共享，以便于实现共同进步。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个考研完毕的学生，我希望可以通过回答学弟学妹的问题，对学弟学妹的考研提供一些我的考研经验，以及我对考研的看法，以便于帮助他们更好的择校以及学习。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为优图南的用户，我希望可以在个人中心可以有一个栏目，记录自己发表过的提问，以便于方便对这些内容进行管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为一个考研的学生，我希望在院校详情页可以有直达学校官网的入口和相关资料的一键搜索，以便于节约我搜罗信息的时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为优图南的管理员，我希望可以在后台对用户上传的资料进行审核，以便于避免网站出现侵权、违法或无效信息</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -853,27 +904,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="9.125" style="3"/>
-    <col min="5" max="5" width="17.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="3"/>
-    <col min="9" max="9" width="21.875" style="3" customWidth="1"/>
-    <col min="10" max="11" width="9.125" style="3"/>
-    <col min="12" max="12" width="16.25" style="3" customWidth="1"/>
-    <col min="13" max="13" width="19.625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="3"/>
+    <col min="1" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="17.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="34.2109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.35546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="21.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="3"/>
+    <col min="11" max="11" width="19.640625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -886,15 +936,9 @@
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -928,49 +972,31 @@
       <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="I3" s="3">
         <v>3</v>
@@ -978,11 +1004,11 @@
       <c r="J3" s="3">
         <v>100</v>
       </c>
-      <c r="M3" s="3">
+      <c r="K3" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="54.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="54.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -993,19 +1019,19 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="I4" s="3">
         <v>2</v>
@@ -1013,11 +1039,11 @@
       <c r="J4" s="3">
         <v>65</v>
       </c>
-      <c r="M4" s="3">
+      <c r="K4" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="58.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="58.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1028,19 +1054,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
@@ -1048,11 +1074,11 @@
       <c r="J5" s="3">
         <v>40</v>
       </c>
-      <c r="M5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="76.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="76.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1063,19 +1089,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="I6" s="3">
         <v>4</v>
@@ -1083,11 +1109,11 @@
       <c r="J6" s="3">
         <v>75</v>
       </c>
-      <c r="M6" s="3">
+      <c r="K6" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1098,19 +1124,19 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="I7" s="3">
         <v>3</v>
@@ -1118,8 +1144,11 @@
       <c r="J7" s="3">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="74.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1130,19 +1159,19 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="I8" s="3">
         <v>2</v>
@@ -1150,8 +1179,11 @@
       <c r="J8" s="3">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="56.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="56.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1162,19 +1194,19 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="I9" s="3">
         <v>2</v>
@@ -1182,8 +1214,11 @@
       <c r="J9" s="3">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1194,19 +1229,19 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="I10" s="3">
         <v>2</v>
@@ -1214,8 +1249,11 @@
       <c r="J10" s="3">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="K10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1226,19 +1264,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="I11" s="3">
         <v>2</v>
@@ -1246,8 +1284,11 @@
       <c r="J11" s="3">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="57" x14ac:dyDescent="0.2">
+      <c r="K11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="56.6" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1258,19 +1299,19 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="I12" s="3">
         <v>4</v>
@@ -1278,8 +1319,11 @@
       <c r="J12" s="3">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1290,19 +1334,19 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="I13" s="3">
         <v>2</v>
@@ -1310,8 +1354,11 @@
       <c r="J13" s="3">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="42.45" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1322,19 +1369,19 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I14" s="3">
         <v>3</v>
@@ -1342,10 +1389,293 @@
       <c r="J14" s="3">
         <v>70</v>
       </c>
+      <c r="K14" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="62.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3">
+        <v>65</v>
+      </c>
+      <c r="K15" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="3">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3">
+        <v>80</v>
+      </c>
+      <c r="K16" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="66.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2</v>
+      </c>
+      <c r="J17" s="3">
+        <v>50</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
+        <v>60</v>
+      </c>
+      <c r="K18" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="66.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>40</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="55.85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="3">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3">
+        <v>40</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="53.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="3">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
+        <v>50</v>
+      </c>
+      <c r="K21" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="71.599999999999994" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2</v>
+      </c>
+      <c r="J22" s="3">
+        <v>60</v>
+      </c>
+      <c r="K22" s="3">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1357,384 +1687,384 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="57.375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="57.35546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="11" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="9" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="C3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="C5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="C6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="C11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="C12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="13" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="C13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
         <v>35</v>
       </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C12" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
       <c r="E13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="C16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C17" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="C19" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D19" t="s">
         <v>68</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C20" s="10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C15" s="10" t="s">
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C21" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C16" s="10" t="s">
+      <c r="D21" t="s">
         <v>71</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C22" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="10" t="s">
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C23" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D23" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C18" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C19" s="10" t="s">
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="C24" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D24" t="s">
         <v>78</v>
       </c>
-      <c r="E19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C20" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C21" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C22" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C23" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C24" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" t="s">
-        <v>88</v>
-      </c>
       <c r="E24" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>4</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C26" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="C27" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C28" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
         <v>68</v>
       </c>
-      <c r="E25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C26" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C27" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C28" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" t="s">
-        <v>78</v>
-      </c>
       <c r="E28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28.3" x14ac:dyDescent="0.35">
       <c r="C29" s="10" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C30" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" t="s">
-        <v>84</v>
-      </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
